--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>843349.6619307735</v>
+        <v>841143.5685243355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604729</v>
+        <v>7094780.682604725</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>242.4899678797163</v>
+        <v>226.5675813972618</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>414.0301000117425</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>46.36558293807713</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +753,10 @@
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154859</v>
+        <v>65.95263903154861</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801552</v>
+        <v>57.88099638015526</v>
       </c>
       <c r="S3" t="n">
         <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
-        <v>10.20321912779978</v>
+        <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
         <v>225.8965846405547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>71.84754191571648</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>81.26091930562522</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>257.9584446544824</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>322.6805862027269</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>91.82580793753526</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>269.027508828177</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>98.63122914173739</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>107.7128673607064</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.0310673697213</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>146.6850513083904</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>48.02616332459622</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.010711679962696e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>209.5669415928207</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>153.0192665379517</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>37.59617708813176</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>129.8723895268711</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>141.4207089147707</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>98.7808959733851</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>197.7636407553157</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>49.96616404348394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>110.7115619691725</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5373350448695</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.61734130489154</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>38.81718992773139</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.89138480951627</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>71.67037196991659</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>231.2087520467349</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880191</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
         <v>110.9385463605234</v>
@@ -3436,7 +3436,7 @@
         <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
         <v>109.259598628275</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.40146858496892</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>64.64142553133797</v>
       </c>
       <c r="U37" t="n">
         <v>250.7164219195671</v>
@@ -3560,7 +3560,7 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
-        <v>292.25684218409</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
         <v>313.7455524313672</v>
@@ -3569,7 +3569,7 @@
         <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700089</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>113.1200567321666</v>
@@ -3670,7 +3670,7 @@
         <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>52.88214227048663</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
@@ -3712,13 +3712,13 @@
         <v>154.2736090453961</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>42.11922129852389</v>
       </c>
       <c r="U40" t="n">
         <v>250.7164219195671</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W40" t="n">
         <v>251.0275820505452</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
         <v>329.7774754849618</v>
@@ -3746,7 +3746,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F41" t="n">
         <v>371.3806294556657</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880247</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213011</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
         <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>78.92986640580835</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282751</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379239</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400162</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453962</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901235</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195672</v>
+        <v>161.0842384055097</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377823</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505453</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660491</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880127</v>
+        <v>6.081513486880212</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213002</v>
+        <v>73.6923455021301</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
         <v>215.4997556728562</v>
@@ -4040,10 +4040,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,16 +4135,16 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
         <v>130.5303919729824</v>
@@ -4153,7 +4153,7 @@
         <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379227</v>
+        <v>60.85700412379234</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400149</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901234</v>
+        <v>21.30636284646443</v>
       </c>
       <c r="U46" t="n">
-        <v>87.96925177591004</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
         <v>216.6422270377822</v>
@@ -4198,7 +4198,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
         <v>183.089237066049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1636.148570710879</v>
+        <v>1475.274541644636</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.186053770467</v>
+        <v>1106.312024704224</v>
       </c>
       <c r="D2" t="n">
-        <v>1022.246692275804</v>
+        <v>877.4558818787071</v>
       </c>
       <c r="E2" t="n">
-        <v>636.45843967756</v>
+        <v>877.4558818787071</v>
       </c>
       <c r="F2" t="n">
-        <v>629.5129389283566</v>
+        <v>466.4699770890996</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="J2" t="n">
-        <v>143.361340524478</v>
+        <v>143.3613405244779</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293493</v>
+        <v>406.641766629349</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024622</v>
+        <v>785.5410436024615</v>
       </c>
       <c r="M2" t="n">
         <v>1223.746040782768</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400859</v>
+        <v>1654.409655400857</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671741</v>
+        <v>2015.88545667174</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110674</v>
+        <v>2286.722307110672</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="S2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="T2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="U2" t="n">
-        <v>2412.887742750812</v>
+        <v>2159.106084258321</v>
       </c>
       <c r="V2" t="n">
-        <v>2412.887742750812</v>
+        <v>1828.04319691475</v>
       </c>
       <c r="W2" t="n">
-        <v>2412.887742750812</v>
+        <v>1475.274541644636</v>
       </c>
       <c r="X2" t="n">
-        <v>2412.887742750812</v>
+        <v>1475.274541644636</v>
       </c>
       <c r="Y2" t="n">
-        <v>2022.748410775001</v>
+        <v>1475.274541644636</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>882.0790604127056</v>
+        <v>861.1863977183455</v>
       </c>
       <c r="C3" t="n">
-        <v>707.6260311315787</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>558.6916214703274</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>399.4541664648719</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>252.9196084917569</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
-        <v>114.8765821596108</v>
+        <v>221.6030265867035</v>
       </c>
       <c r="H3" t="n">
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501624</v>
+        <v>111.207419271958</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757256</v>
+        <v>345.4192653503513</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519685</v>
+        <v>721.750392226594</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664339</v>
+        <v>1212.890288538964</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987183</v>
+        <v>1732.736209861808</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602207</v>
+        <v>2141.877989476832</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642316</v>
+        <v>2257.443393642314</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750811</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841565</v>
+        <v>2354.422089841563</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.78031163427</v>
+        <v>2193.780311634268</v>
       </c>
       <c r="T3" t="n">
-        <v>2183.474029686997</v>
+        <v>1994.366029972569</v>
       </c>
       <c r="U3" t="n">
-        <v>1955.295661363205</v>
+        <v>1766.187661648776</v>
       </c>
       <c r="V3" t="n">
-        <v>1720.143553131462</v>
+        <v>1531.035553417034</v>
       </c>
       <c r="W3" t="n">
-        <v>1465.90619640326</v>
+        <v>1276.798196688832</v>
       </c>
       <c r="X3" t="n">
-        <v>1258.054696197727</v>
+        <v>1068.946696483299</v>
       </c>
       <c r="Y3" t="n">
-        <v>1050.294397432774</v>
+        <v>861.1863977183455</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.3105771952589</v>
+        <v>120.8310295173561</v>
       </c>
       <c r="C4" t="n">
-        <v>198.374394267352</v>
+        <v>120.8310295173561</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501624</v>
+        <v>120.8310295173561</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501624</v>
+        <v>120.8310295173561</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501621</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461006</v>
+        <v>91.87143294460995</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384342</v>
+        <v>203.208359838434</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534285</v>
+        <v>330.9866617534282</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692849</v>
+        <v>461.1612976692845</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984521</v>
+        <v>565.3823477984516</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="U4" t="n">
-        <v>548.9590420254987</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="V4" t="n">
-        <v>548.9590420254987</v>
+        <v>631.0407786978468</v>
       </c>
       <c r="W4" t="n">
-        <v>548.9590420254987</v>
+        <v>341.6236086608862</v>
       </c>
       <c r="X4" t="n">
-        <v>548.9590420254987</v>
+        <v>341.6236086608862</v>
       </c>
       <c r="Y4" t="n">
-        <v>548.9590420254987</v>
+        <v>120.8310295173561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1108.378893121371</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>739.4163761809593</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>739.4163761809593</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1391.572277535616</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.518225097183</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1108.378893121371</v>
+        <v>1018.106519274536</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,19 +4647,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>635.3756428553887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>635.3756428553887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>635.3756428553887</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859356</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859356</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>907.9023860081004</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4896,16 +4896,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9622657131106</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9622657131106</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9622657131106</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>522.0369969642917</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5042,22 +5042,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2368.748013620957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>3348.500285847604</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.1008243407839</v>
+        <v>508.0400813400981</v>
       </c>
       <c r="C13" t="n">
-        <v>360.5895482553332</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D13" t="n">
-        <v>360.5895482553332</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5895482553301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145538</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>811.5418683145538</v>
+        <v>689.6885461703379</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.7492891710236</v>
+        <v>689.6885461703379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5285,13 +5285,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2274.668463554308</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5370,25 +5370,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>747.3928343215989</v>
+        <v>567.9454261809119</v>
       </c>
       <c r="C16" t="n">
-        <v>578.456651393692</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D16" t="n">
-        <v>428.3400119813563</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E16" t="n">
-        <v>280.4269183989632</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F16" t="n">
-        <v>133.5369709010528</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>133.5369709010528</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.240599230347</v>
+        <v>1198.376021052699</v>
       </c>
       <c r="W16" t="n">
-        <v>1377.823429193386</v>
+        <v>1198.376021052699</v>
       </c>
       <c r="X16" t="n">
-        <v>1149.833878295369</v>
+        <v>970.3864701546818</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.0412991518386</v>
+        <v>749.5938910111516</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M17" t="n">
-        <v>2047.844055175504</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>3027.596327402151</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>3530.568798281487</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4243.923885728434</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4702.402088237422</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5598,34 +5598,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.1835515663147</v>
+        <v>713.5009252592423</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663147</v>
+        <v>544.5647423313355</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>394.4481029189998</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
         <v>263.2638710736754</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1400.041765577045</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1400.041765577045</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W19" t="n">
-        <v>1110.624595540085</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.624595540085</v>
+        <v>895.149390089482</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.8320163965544</v>
+        <v>895.149390089482</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>3008.107474639232</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O20" t="n">
-        <v>3511.079945518569</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4224.435032965514</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,13 +5832,13 @@
         <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008795</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,13 +5868,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.3640755286979</v>
+        <v>759.6313103540838</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>590.6951274261769</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>440.5784880138411</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>292.665394431448</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>292.665394431448</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,10 +5914,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1564.896328643333</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V22" t="n">
-        <v>1310.211840437446</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.794670400485</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="X22" t="n">
-        <v>792.8051195024677</v>
+        <v>1162.072354327854</v>
       </c>
       <c r="Y22" t="n">
-        <v>572.0125403589376</v>
+        <v>941.2797751843235</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,25 +5990,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2628.734306600803</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>3189.361480106701</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>3692.333950986038</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>482.6709267727784</v>
+        <v>674.3568109459519</v>
       </c>
       <c r="C25" t="n">
-        <v>313.7347438448714</v>
+        <v>505.420628018045</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>355.3039886057093</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>207.3908950233161</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>207.3908950233161</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057173</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851287</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W25" t="n">
-        <v>931.4530568143259</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X25" t="n">
-        <v>703.4635059163086</v>
+        <v>895.149390089482</v>
       </c>
       <c r="Y25" t="n">
-        <v>482.6709267727784</v>
+        <v>674.3568109459519</v>
       </c>
     </row>
     <row r="26">
@@ -6218,31 +6218,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196469</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075806</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6324,19 +6324,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.5174452387471</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C28" t="n">
-        <v>536.5812623108402</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>536.5812623108402</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1908.245141554308</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1686.478526123834</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1397.375659249478</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1397.375659249478</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W28" t="n">
-        <v>1107.958489212517</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>1107.958489212517</v>
+        <v>895.1493900894823</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.1659100689868</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620956</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>708.1835515663147</v>
+        <v>747.3928343215989</v>
       </c>
       <c r="C31" t="n">
         <v>708.1835515663147</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6649,22 +6649,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1882.715804680949</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.715804680949</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1628.031316475062</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.614146438102</v>
+        <v>1377.823429193386</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.624595540085</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.8320163965544</v>
+        <v>929.0412991518386</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6777,28 +6777,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8112129900685</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C34" t="n">
-        <v>612.8750300621616</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D34" t="n">
-        <v>462.7583906498259</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E34" t="n">
-        <v>314.8452970674327</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F34" t="n">
-        <v>167.9553495695223</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9553495695223</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6874,7 +6874,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
@@ -6889,19 +6889,19 @@
         <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104703</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1701.658977898816</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.241807861856</v>
+        <v>1179.011917037859</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.252256963838</v>
+        <v>951.0223661398413</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.4596778203082</v>
+        <v>730.2297869963112</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571338</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>774.6894873488975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1225.723700597306</v>
+        <v>1121.895119095911</v>
       </c>
       <c r="M35" t="n">
-        <v>1769.213049780434</v>
+        <v>2100.44542192574</v>
       </c>
       <c r="N35" t="n">
-        <v>2748.96532200708</v>
+        <v>2647.224238984521</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.937792886417</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P35" t="n">
-        <v>3646.712159243595</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983638</v>
@@ -6968,10 +6968,10 @@
         <v>3984.706179583937</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W35" t="n">
         <v>3154.906027777561</v>
@@ -7014,22 +7014,22 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J36" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702911</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506382</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633034</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N36" t="n">
-        <v>1704.024331240073</v>
+        <v>1704.024331240074</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P36" t="n">
         <v>2425.485202134231</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>612.5976424292264</v>
+        <v>858.7092067778618</v>
       </c>
       <c r="C37" t="n">
-        <v>479.5154153458101</v>
+        <v>725.6269796944454</v>
       </c>
       <c r="D37" t="n">
-        <v>479.5154153458101</v>
+        <v>611.3642961266004</v>
       </c>
       <c r="E37" t="n">
-        <v>367.4562776079077</v>
+        <v>499.3051583886979</v>
       </c>
       <c r="F37" t="n">
-        <v>256.420285954488</v>
+        <v>388.2691667352783</v>
       </c>
       <c r="G37" t="n">
-        <v>256.420285954488</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H37" t="n">
         <v>146.0570550168367</v>
@@ -7117,28 +7117,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2202.853615265939</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S37" t="n">
-        <v>2047.021686937256</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="T37" t="n">
-        <v>1861.109027351273</v>
+        <v>2107.220591699909</v>
       </c>
       <c r="U37" t="n">
-        <v>1607.860116321408</v>
+        <v>1853.971680670043</v>
       </c>
       <c r="V37" t="n">
-        <v>1389.029583960011</v>
+        <v>1635.141148308647</v>
       </c>
       <c r="W37" t="n">
-        <v>1135.466369767541</v>
+        <v>1381.577934116177</v>
       </c>
       <c r="X37" t="n">
-        <v>943.3307747140148</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.3921514149754</v>
+        <v>1004.503715763611</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J38" t="n">
-        <v>440.8701136590512</v>
+        <v>303.5160722363618</v>
       </c>
       <c r="K38" t="n">
-        <v>774.6894873488975</v>
+        <v>637.3354459262082</v>
       </c>
       <c r="L38" t="n">
-        <v>1415.13313486086</v>
+        <v>1501.854261579563</v>
       </c>
       <c r="M38" t="n">
-        <v>1948.665039532784</v>
+        <v>2035.386166251487</v>
       </c>
       <c r="N38" t="n">
-        <v>2495.443856591567</v>
+        <v>2582.164983310269</v>
       </c>
       <c r="O38" t="n">
-        <v>2998.416327470904</v>
+        <v>3462.129633639724</v>
       </c>
       <c r="P38" t="n">
-        <v>3711.771414917849</v>
+        <v>3856.903999996902</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R38" t="n">
         <v>4229.266683983639</v>
@@ -7208,13 +7208,13 @@
         <v>3767.029658702265</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y38" t="n">
         <v>2463.00884922965</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.0895204481661</v>
+        <v>725.6269796944457</v>
       </c>
       <c r="C40" t="n">
-        <v>668.0072933647499</v>
+        <v>725.6269796944457</v>
       </c>
       <c r="D40" t="n">
-        <v>553.7446097969049</v>
+        <v>611.3642961266007</v>
       </c>
       <c r="E40" t="n">
-        <v>441.6854720590025</v>
+        <v>499.3051583886983</v>
       </c>
       <c r="F40" t="n">
         <v>388.2691667352786</v>
@@ -7330,13 +7330,13 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497939</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,7 +7345,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045764</v>
@@ -7354,28 +7354,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923482</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594799</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008816</v>
+        <v>1974.138364616493</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978951</v>
+        <v>1720.889453586627</v>
       </c>
       <c r="V40" t="n">
-        <v>1577.521461978951</v>
+        <v>1502.058921225231</v>
       </c>
       <c r="W40" t="n">
-        <v>1323.958247786481</v>
+        <v>1248.495707032761</v>
       </c>
       <c r="X40" t="n">
-        <v>1131.822652732955</v>
+        <v>1056.360111979234</v>
       </c>
       <c r="Y40" t="n">
-        <v>946.8840294339152</v>
+        <v>871.421488680195</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
@@ -7397,64 +7397,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571344</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1877967739977</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1379.222010022406</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M41" t="n">
-        <v>1912.75391469433</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.532731753113</v>
+        <v>3016.620626633429</v>
       </c>
       <c r="O41" t="n">
-        <v>2962.50520263245</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P41" t="n">
-        <v>3646.712159243596</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q41" t="n">
-        <v>4105.190361752584</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G42" t="n">
         <v>194.0945196402673</v>
@@ -7485,31 +7485,31 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702899</v>
       </c>
       <c r="K42" t="n">
         <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633025</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N42" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R42" t="n">
         <v>2582.982406373346</v>
@@ -7527,7 +7527,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
         <v>1335.59270751362</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867686</v>
+        <v>858.7092067778618</v>
       </c>
       <c r="C43" t="n">
-        <v>582.2589880867686</v>
+        <v>725.6269796944455</v>
       </c>
       <c r="D43" t="n">
-        <v>467.9963045189235</v>
+        <v>611.3642961266005</v>
       </c>
       <c r="E43" t="n">
-        <v>467.9963045189235</v>
+        <v>499.3051583886981</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352787</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544884</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7582,37 +7582,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923482</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594799</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008816</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.52146197895</v>
+        <v>1853.971680670043</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617554</v>
+        <v>1635.141148308647</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425084</v>
+        <v>1381.577934116177</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715569</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725176</v>
+        <v>1004.503715763611</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010021</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.1544039141</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.74266115184</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529696</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571331</v>
+        <v>90.7282765957134</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>899.0396659381977</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L44" t="n">
-        <v>1350.073879186607</v>
+        <v>1546.627659042759</v>
       </c>
       <c r="M44" t="n">
-        <v>1883.605783858531</v>
+        <v>2080.159563714683</v>
       </c>
       <c r="N44" t="n">
-        <v>2430.384600917313</v>
+        <v>2626.938380773466</v>
       </c>
       <c r="O44" t="n">
-        <v>2933.35707179665</v>
+        <v>3143.548912549955</v>
       </c>
       <c r="P44" t="n">
-        <v>3646.712159243596</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752584</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229652</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285972</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474703</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862191</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807635</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076486</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402672</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
         <v>783.2249624633024</v>
@@ -7749,28 +7749,28 @@
         <v>2583.12675978083</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373345</v>
+        <v>2582.982406373346</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866825</v>
+        <v>2453.544519866826</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679096</v>
+        <v>2032.833672679097</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.592707513619</v>
+        <v>1335.59270751362</v>
       </c>
       <c r="Y45" t="n">
-        <v>1127.832408748665</v>
+        <v>1127.832408748666</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.6500690399591</v>
+        <v>746.6500690399596</v>
       </c>
       <c r="C46" t="n">
-        <v>613.5678419565429</v>
+        <v>613.5678419565434</v>
       </c>
       <c r="D46" t="n">
-        <v>499.3051583886981</v>
+        <v>499.3051583886983</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886981</v>
+        <v>499.3051583886983</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352785</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544882</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L46" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7819,7 +7819,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P46" t="n">
         <v>2113.740704045764</v>
@@ -7834,22 +7834,22 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008817</v>
+        <v>1995.161453962007</v>
       </c>
       <c r="U46" t="n">
-        <v>1741.91254293214</v>
+        <v>1741.912542932141</v>
       </c>
       <c r="V46" t="n">
-        <v>1523.082010570744</v>
+        <v>1523.082010570745</v>
       </c>
       <c r="W46" t="n">
-        <v>1269.518796378274</v>
+        <v>1269.518796378275</v>
       </c>
       <c r="X46" t="n">
-        <v>1077.383201324747</v>
+        <v>1077.383201324748</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.4445780257081</v>
+        <v>892.4445780257086</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733622</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>130.2690628128977</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>120.681074827183</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>14.45386895940612</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>170.1140909277309</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>260.9678829613766</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16.80057335908779</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,19 +9407,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.0848540075446</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>13.98823883547038</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>314.5564971416988</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>192.9047586887114</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>386.0843734984086</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>420.2833968404726</v>
+        <v>23.80814351663741</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>64.21926012015939</v>
       </c>
       <c r="M35" t="n">
-        <v>10.05802475879148</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>30.35515918955926</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>191.3226608722767</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>7.672516970919219</v>
       </c>
       <c r="P41" t="n">
-        <v>292.3561517716852</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>294.7028561713666</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.77581908803302</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>4.592992652874273e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>119.2206577740316</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465672</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>16.1427137962165</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>14.22755456067614</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.1588378261859</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>16.56157311969807</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>144.7911292908422</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>67.24491228564312</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>88.4481974502971</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>98.64930897472843</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>55.31424628985573</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>47.29464513706776</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1516840265504</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>128.4296311708964</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>146.6575644666529</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>73.08464294440419</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25129,13 +25129,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>55.3142462898561</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>30.03526779903264</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.4121074587854</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>57.04348946639882</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>141.9343116915995</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>30.99576533107716</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>89.63218351405736</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605233</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>162.747170143659</v>
       </c>
       <c r="U46" t="n">
-        <v>162.747170143657</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26323,37 +26323,37 @@
         <v>416935.8762313323</v>
       </c>
       <c r="F2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313326</v>
       </c>
       <c r="G2" t="n">
         <v>416935.8762313325</v>
       </c>
       <c r="H2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="I2" t="n">
         <v>416935.8762313325</v>
       </c>
       <c r="J2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313322</v>
       </c>
       <c r="K2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
-        <v>427598.4891507961</v>
+        <v>427598.489150796</v>
       </c>
       <c r="N2" t="n">
-        <v>427598.4891507963</v>
+        <v>427598.4891507962</v>
       </c>
       <c r="O2" t="n">
         <v>427598.4891507963</v>
       </c>
       <c r="P2" t="n">
-        <v>427598.4891507962</v>
+        <v>427598.4891507961</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394268</v>
+        <v>507203.1428394262</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418048</v>
+        <v>78665.28217418095</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410732</v>
+        <v>157829.4001410734</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.9436702217</v>
+        <v>18289.94367022162</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.389644451905042e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547198</v>
+        <v>232017.77175472</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289578</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
+        <v>28561.83935289573</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="J4" t="n">
         <v>28561.83935289574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
         <v>55718.30868501858</v>
       </c>
       <c r="N4" t="n">
+        <v>55718.30868501854</v>
+      </c>
+      <c r="O4" t="n">
         <v>55718.30868501855</v>
       </c>
-      <c r="O4" t="n">
-        <v>55718.30868501852</v>
-      </c>
       <c r="P4" t="n">
-        <v>55718.30868501861</v>
+        <v>55718.30868501856</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133431</v>
+        <v>77204.68871133428</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26479,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26506,10 +26506,10 @@
         <v>91026.0498212368</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123681</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-385378.6741267323</v>
+        <v>-385378.6741267316</v>
       </c>
       <c r="C6" t="n">
-        <v>59600.15347812549</v>
+        <v>59600.15347812496</v>
       </c>
       <c r="D6" t="n">
         <v>138265.435652306</v>
       </c>
       <c r="E6" t="n">
-        <v>-435386.8953686838</v>
+        <v>-435454.0908589097</v>
       </c>
       <c r="F6" t="n">
-        <v>291990.5186247232</v>
+        <v>291923.3231344973</v>
       </c>
       <c r="G6" t="n">
-        <v>291990.5186247229</v>
+        <v>291923.3231344973</v>
       </c>
       <c r="H6" t="n">
-        <v>291990.5186247231</v>
+        <v>291923.3231344972</v>
       </c>
       <c r="I6" t="n">
-        <v>291990.5186247231</v>
+        <v>291923.3231344974</v>
       </c>
       <c r="J6" t="n">
-        <v>134161.1184836496</v>
+        <v>134093.9229934235</v>
       </c>
       <c r="K6" t="n">
-        <v>273700.5749545012</v>
+        <v>273633.3794642756</v>
       </c>
       <c r="L6" t="n">
-        <v>291990.518624723</v>
+        <v>291923.3231344972</v>
       </c>
       <c r="M6" t="n">
-        <v>157005.3394563658</v>
+        <v>156988.9183133754</v>
       </c>
       <c r="N6" t="n">
-        <v>280854.1306445409</v>
+        <v>280837.7095015506</v>
       </c>
       <c r="O6" t="n">
-        <v>280854.130644541</v>
+        <v>280837.7095015506</v>
       </c>
       <c r="P6" t="n">
-        <v>280854.1306445407</v>
+        <v>280837.7095015505</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688975</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688975</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818879</v>
+        <v>61.17508524818913</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,16 +26972,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685298</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685286</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413541</v>
+        <v>383.029398241354</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877026</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685298</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>112.1930737409666</v>
+        <v>128.1154602234212</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208645</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866713</v>
+        <v>69.92680236866723</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776875</v>
@@ -27433,19 +27433,19 @@
         <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>126.3429160502386</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.2169197172821</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>73.57350610721477</v>
       </c>
       <c r="G4" t="n">
         <v>167.4201179865476</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255608</v>
+        <v>52.99928112255613</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273908</v>
+        <v>38.36018782739087</v>
       </c>
       <c r="R4" t="n">
         <v>151.625388236511</v>
@@ -27591,19 +27591,19 @@
         <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>205.0269721578523</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>123.9719254177793</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>26.56038251468613</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>120.3197310124836</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>256.0518124789456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>299.1631783810051</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>8.11447158029759</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>139.5968229335874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.563985251872337e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.133493464702042e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604493</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604464</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392553</v>
+        <v>1.272637503392552</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161899</v>
+        <v>13.03339883161897</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954146</v>
+        <v>49.0633573495414</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035638</v>
+        <v>108.0135173035637</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221707</v>
+        <v>161.8842628221704</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166205</v>
+        <v>200.8317428166203</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175779</v>
+        <v>223.4640100175776</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324092</v>
+        <v>227.0798913240917</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497323</v>
+        <v>214.425102149732</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847286</v>
+        <v>183.0068637847283</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944827</v>
+        <v>137.4305331944825</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248256</v>
+        <v>79.94231557248246</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855784</v>
+        <v>29.0002271085578</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100905</v>
+        <v>5.570970671100898</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714041</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859314</v>
+        <v>0.6809210943859305</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674654</v>
+        <v>6.576264253674646</v>
       </c>
       <c r="I3" t="n">
-        <v>23.4439938198665</v>
+        <v>23.44399381986647</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933048</v>
+        <v>64.33211093933039</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631879</v>
+        <v>109.9538242631877</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665594</v>
+        <v>147.8464858665592</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380493</v>
+        <v>172.5298755380491</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648743</v>
+        <v>177.0962279648741</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313755</v>
+        <v>162.0084500313753</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674328</v>
+        <v>130.0260640674327</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915854</v>
+        <v>86.91898039915843</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248793</v>
+        <v>42.27683777248787</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861587</v>
+        <v>12.64781067861585</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739784</v>
+        <v>2.74458984973978</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012708</v>
+        <v>0.04479744042012702</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111273</v>
+        <v>0.5708613719111265</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173481</v>
+        <v>5.075476561173475</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801827</v>
+        <v>17.16735834801825</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941167</v>
+        <v>40.35989899411665</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840187</v>
+        <v>66.32371211840179</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667797</v>
+        <v>84.87151705667787</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148697</v>
+        <v>89.48511487148686</v>
       </c>
       <c r="N4" t="n">
-        <v>87.3573588489092</v>
+        <v>87.35735884890909</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952201</v>
+        <v>80.68866009521999</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823304</v>
+        <v>69.04308810823295</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430358</v>
+        <v>47.80185542430352</v>
       </c>
       <c r="R4" t="n">
-        <v>25.6680031406585</v>
+        <v>25.66800314065847</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760279</v>
+        <v>9.948556817760267</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711179</v>
+        <v>2.439134952711177</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333425</v>
+        <v>0.03113789301333421</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026448</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33752,7 +33752,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895131</v>
+        <v>96.06422794895117</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483548</v>
+        <v>265.9398243483546</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970837</v>
+        <v>382.7265423970834</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831376</v>
+        <v>442.6313102831373</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394852</v>
+        <v>435.013752139485</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907909</v>
+        <v>365.1270719907906</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009416</v>
+        <v>273.5725762009414</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799379</v>
+        <v>127.4398339799377</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.58551961307253</v>
       </c>
       <c r="K3" t="n">
-        <v>102.3814481017266</v>
+        <v>236.5776223014074</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901444</v>
+        <v>380.1324513901442</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660309</v>
+        <v>496.1009053660307</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250945</v>
+        <v>525.0968902250943</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>413.2745248636604</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930397</v>
+        <v>116.7327314802854</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489861</v>
+        <v>157.014494048986</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251902</v>
+        <v>44.05422029251893</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.461542316994</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333276</v>
+        <v>129.0689918333275</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281377</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092598</v>
+        <v>105.2737880092597</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312652</v>
+        <v>66.32164737312644</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35422,13 +35422,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>522.5068698476252</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>420.9083957314504</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>799.8889987916032</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451124</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>76.41377190131257</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36127,19 +36127,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>433.8791588112641</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>566.2900742483819</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>713.3184833610707</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36516,7 +36516,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>731.8258745189379</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>938.3862089113198</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>959.2045126706992</v>
+        <v>562.729259346864</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>519.8093745124913</v>
       </c>
       <c r="M35" t="n">
-        <v>548.979140589018</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597809</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37467,7 +37467,7 @@
         <v>241.5430758303653</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M37" t="n">
         <v>383.1287956795296</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>221.1421601582718</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>646.9127752646086</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
         <v>383.1287956795296</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>515.7255178591383</v>
       </c>
       <c r="P41" t="n">
-        <v>691.1181379910569</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911192</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303652</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795295</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086854</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311561</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
         <v>113.8896548239394</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>631.8941427267671</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>521.828819976252</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911196</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
